--- a/1. Project management/12. Daily report/tong hop/sprint 2/AS_PM_DailyMeeting11-4.xlsx
+++ b/1. Project management/12. Daily report/tong hop/sprint 2/AS_PM_DailyMeeting11-4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
   <si>
     <t>Chau Le</t>
   </si>
@@ -142,13 +142,25 @@
     <t>Phase: Daily report sprint 2</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>On-going</t>
   </si>
   <si>
     <t>Report date: 11/4/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement - Điểu chỉnh hiển thị các items trong danh sách </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>deploy website</t>
+  </si>
+  <si>
+    <t>wasting time to research deploy</t>
+  </si>
+  <si>
+    <t>fix bugs</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1150,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,66 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2788,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3437,16 +3449,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3461,10 +3473,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -3476,10 +3488,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3500,17 +3512,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3555,10 +3567,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -3571,14 +3583,10 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -3589,8 +3597,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3647,19 +3655,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -3668,21 +3676,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -3694,8 +3702,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -3707,8 +3715,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -3720,8 +3728,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -3757,44 +3765,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3824,19 +3832,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -3845,13 +3853,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3882,41 +3890,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3967,12 +3975,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -3986,15 +3997,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="164" priority="22" stopIfTrue="1" operator="equal">
@@ -4110,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4759,16 +4767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4783,10 +4791,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4798,10 +4806,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4822,17 +4830,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4877,10 +4885,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -4889,15 +4897,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41916</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41916</v>
+      </c>
       <c r="F10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
         <v>1</v>
       </c>
@@ -4910,14 +4926,10 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -4973,19 +4985,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -4997,10 +5009,10 @@
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5033,8 +5045,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -5046,8 +5058,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -5083,44 +5095,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5150,19 +5162,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -5171,13 +5183,15 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5208,41 +5222,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5293,12 +5307,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -5309,15 +5326,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="140" priority="31" stopIfTrue="1" operator="equal">
@@ -6119,16 +6133,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6143,10 +6157,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -6158,10 +6172,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6182,17 +6196,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6237,10 +6251,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -6254,8 +6268,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6267,8 +6281,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6325,19 +6339,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -6346,21 +6360,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -6372,8 +6386,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -6385,8 +6399,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -6398,8 +6412,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -6435,44 +6449,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -6502,19 +6516,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -6523,13 +6537,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6560,41 +6574,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6645,12 +6659,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -6664,15 +6681,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="107" priority="22" stopIfTrue="1" operator="equal">
@@ -7437,16 +7451,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7461,10 +7475,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -7476,10 +7490,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7500,17 +7514,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7555,10 +7569,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7572,8 +7586,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7585,8 +7599,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7643,19 +7657,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -7664,21 +7678,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -7690,8 +7704,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -7703,8 +7717,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -7716,8 +7730,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -7753,44 +7767,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7820,19 +7834,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -7841,13 +7855,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -7878,41 +7892,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7963,12 +7977,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -7982,15 +7999,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="83" priority="22" stopIfTrue="1" operator="equal">
@@ -8106,8 +8120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8755,16 +8769,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8779,10 +8793,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -8794,10 +8808,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8818,17 +8832,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -8873,10 +8887,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8885,15 +8899,23 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16">
+        <v>41916</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41916</v>
+      </c>
       <c r="F10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
         <v>4</v>
       </c>
@@ -8906,14 +8928,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -8969,19 +8987,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -8990,21 +9008,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="16"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -9016,8 +9034,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -9029,8 +9047,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -9042,8 +9060,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -9079,44 +9097,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -9146,19 +9164,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -9167,13 +9185,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -9204,41 +9222,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9289,12 +9307,17 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B16:C16"/>
@@ -9306,17 +9329,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="59" priority="28" stopIfTrue="1" operator="equal">
@@ -9449,8 +9467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:I24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10098,16 +10116,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10122,10 +10140,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="112"/>
+      <c r="A3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="82"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
@@ -10137,10 +10155,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10161,17 +10179,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -10216,10 +10234,10 @@
       <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
@@ -10228,15 +10246,19 @@
       <c r="A10" s="13">
         <v>1</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="D10" s="16">
+        <v>41916</v>
+      </c>
+      <c r="E10" s="16">
+        <v>41916</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="18" t="s">
         <v>5</v>
       </c>
@@ -10250,8 +10272,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10308,19 +10330,19 @@
       <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="39" t="s">
         <v>17</v>
       </c>
@@ -10329,21 +10351,21 @@
       <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="21"/>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -10355,8 +10377,8 @@
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="21"/>
       <c r="E19" s="41"/>
       <c r="F19" s="42"/>
@@ -10368,8 +10390,8 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="21"/>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -10381,8 +10403,8 @@
       <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="29"/>
       <c r="E21" s="44"/>
       <c r="F21" s="45"/>
@@ -10418,44 +10440,44 @@
       <c r="A24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109" t="s">
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="87"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="87"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -10485,19 +10507,19 @@
       <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
       <c r="E29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
       <c r="I29" s="51" t="s">
         <v>17</v>
       </c>
@@ -10506,13 +10528,13 @@
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -10543,41 +10565,41 @@
       <c r="A33" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="56">
         <v>1</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="104"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56">
         <v>2</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10628,12 +10650,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="28">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="G11:H11"/>
@@ -10647,15 +10672,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:I6">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
